--- a/github-gitlab/github-to-gitlab.xlsx
+++ b/github-gitlab/github-to-gitlab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhegde\Desktop\New folder\SCM-Migration-DEMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abharamagoudar\Desktop\api\github\SCM-Migration-DEMO\github-gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429C9036-F5B2-435F-956A-655CB157BA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A918963-4FFB-41A3-A79D-DCD1A4C9B1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3F209A0E-9AC7-46C4-946B-A78756F70336}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3F209A0E-9AC7-46C4-946B-A78756F70336}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>sr</t>
   </si>
@@ -47,29 +47,44 @@
     <t>gitlab_target_namespace</t>
   </si>
   <si>
-    <t>vinayhegde105</t>
-  </si>
-  <si>
-    <t>vth1/vth1</t>
-  </si>
-  <si>
-    <t>swathisabhahit</t>
-  </si>
-  <si>
-    <t>flyway-pipelines</t>
-  </si>
-  <si>
-    <t>ngnix_argo</t>
-  </si>
-  <si>
-    <t>vth1/test4</t>
+    <t>repo-migration</t>
+  </si>
+  <si>
+    <t>casashell</t>
+  </si>
+  <si>
+    <t>code-migration</t>
+  </si>
+  <si>
+    <t>casaplotms </t>
+  </si>
+  <si>
+    <t>casa-build-utils </t>
+  </si>
+  <si>
+    <t>casaaddons </t>
+  </si>
+  <si>
+    <t>cartavis </t>
+  </si>
+  <si>
+    <t>carta-casacore</t>
+  </si>
+  <si>
+    <t>casa-asap </t>
+  </si>
+  <si>
+    <t>almatasks </t>
+  </si>
+  <si>
+    <t>app-n-pak </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +96,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -103,14 +132,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -423,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5788E7F9-ABD1-47BD-BF02-58934DF99235}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -473,13 +507,111 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/github-gitlab/github-to-gitlab.xlsx
+++ b/github-gitlab/github-to-gitlab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abharamagoudar\Desktop\api\github\SCM-Migration-DEMO\github-gitlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A918963-4FFB-41A3-A79D-DCD1A4C9B1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9429EC4D-204C-475C-B49F-FA1639F84D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3F209A0E-9AC7-46C4-946B-A78756F70336}"/>
   </bookViews>
@@ -56,28 +56,28 @@
     <t>code-migration</t>
   </si>
   <si>
-    <t>casaplotms </t>
-  </si>
-  <si>
-    <t>casa-build-utils </t>
-  </si>
-  <si>
-    <t>casaaddons </t>
-  </si>
-  <si>
-    <t>cartavis </t>
-  </si>
-  <si>
     <t>carta-casacore</t>
   </si>
   <si>
-    <t>casa-asap </t>
-  </si>
-  <si>
-    <t>almatasks </t>
-  </si>
-  <si>
-    <t>app-n-pak </t>
+    <t>casaplotms</t>
+  </si>
+  <si>
+    <t>casa-build-utils</t>
+  </si>
+  <si>
+    <t>casaaddons</t>
+  </si>
+  <si>
+    <t>cartavis</t>
+  </si>
+  <si>
+    <t>casa-asap</t>
+  </si>
+  <si>
+    <t>almatasks</t>
+  </si>
+  <si>
+    <t>app-n-pak</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +496,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -510,7 +510,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -538,7 +538,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -552,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -566,7 +566,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
